--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noru\OneDrive\바탕 화면\프라시아전기\prasia-cards\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2336025-43E4-46BC-97F5-57F4BE051D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B77030-6A02-445F-B6E1-00C301FE135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46710" yWindow="1005" windowWidth="24990" windowHeight="19755" xr2:uid="{F62FA670-5EDF-43A2-8B8D-33175742FE82}"/>
+    <workbookView xWindow="43170" yWindow="675" windowWidth="24990" windowHeight="19755" xr2:uid="{F62FA670-5EDF-43A2-8B8D-33175742FE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>69</v>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B77030-6A02-445F-B6E1-00C301FE135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C8127-7508-4DFC-9969-06CA60F38E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43170" yWindow="675" windowWidth="24990" windowHeight="19755" xr2:uid="{F62FA670-5EDF-43A2-8B8D-33175742FE82}"/>
   </bookViews>
@@ -916,7 +916,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
